--- a/Lektion 6/5_charts/output.xlsx
+++ b/Lektion 6/5_charts/output.xlsx
@@ -174,7 +174,7 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'Region_sheet'!$A$1:$A$5</f>
+              <f>'Region_sheet'!$A$2:$A$5</f>
             </numRef>
           </cat>
           <val>
